--- a/assets/archivos/productos.xlsx
+++ b/assets/archivos/productos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nombre</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>id_categoria</t>
+  </si>
+  <si>
+    <t>precio</t>
   </si>
 </sst>
 </file>
@@ -369,18 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,11 +393,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
